--- a/Data Model/Univ_Assess_EMD_EntityImg.xlsx
+++ b/Data Model/Univ_Assess_EMD_EntityImg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitind.INTERNAL\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{520DB3A0-F171-47B1-8F9E-24D5FE3E1E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F55A824-82FC-47BB-A88B-1DCBC01DE45C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Universe" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
     <sheet name="EntityImages" sheetId="5" r:id="rId3"/>
     <sheet name="EntityMetaData" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -302,8 +296,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -469,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -663,43 +657,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F258705-C707-4C5C-B940-F6DF6B596324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -740,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="E3" t="s">
         <v>6</v>
       </c>
@@ -748,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -777,7 +771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -800,7 +794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -817,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -828,33 +822,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978D05BD-4652-4EF8-917D-024D0FA5D611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -886,12 +878,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="J4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -911,7 +903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -931,7 +923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -948,25 +940,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C89B4-0F12-47C3-AA00-8CF65A34A645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -983,7 +975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -991,22 +983,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1017,23 +1009,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AA9834-D144-40C0-B62B-60DC1065EDE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1059,7 +1051,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1079,7 +1071,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1099,7 +1091,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1119,7 +1111,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1139,7 +1131,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1159,7 +1151,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1179,7 +1171,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1199,7 +1191,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1219,7 +1211,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1239,7 +1231,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>9</v>
       </c>

--- a/Data Model/Univ_Assess_EMD_EntityImg.xlsx
+++ b/Data Model/Univ_Assess_EMD_EntityImg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Universe" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>AccessControlID</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>WorkflowID</t>
-  </si>
-  <si>
-    <t>Busienss Unit</t>
   </si>
   <si>
     <t>Currency</t>
@@ -297,10 +294,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,10 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,9 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -689,12 +703,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -735,6 +749,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
+      <c r="A3" s="3"/>
       <c r="E3" t="s">
         <v>6</v>
       </c>
@@ -742,8 +757,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3"/>
+    </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
@@ -771,31 +795,43 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3"/>
+    </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
@@ -825,16 +861,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -842,12 +880,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
@@ -875,67 +913,102 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="J4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
       </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -955,24 +1028,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1012,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
@@ -1027,28 +1100,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1056,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1082,10 +1155,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1096,16 +1169,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1116,16 +1189,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1136,16 +1209,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1156,16 +1229,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1176,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1196,16 +1269,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1216,16 +1289,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1236,16 +1309,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
